--- a/setup/setup_Tesla3.xlsx
+++ b/setup/setup_Tesla3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schir\OneDrive\Studium\34_Github\PyEVPowerKit\setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDDAD10-49B4-480D-B398-613065890841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5CB9DE1-A24E-4557-9F8B-85E3A770331F}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="2652" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="2748" yWindow="4236" windowWidth="23040" windowHeight="12204" activeTab="5" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="301">
   <si>
     <t>#</t>
   </si>
@@ -214,24 +214,9 @@
     <t>i</t>
   </si>
   <si>
-    <t>Voltage</t>
-  </si>
-  <si>
-    <t>DC Link voltage</t>
-  </si>
-  <si>
-    <t>Vdc</t>
-  </si>
-  <si>
     <t>Resistance</t>
   </si>
   <si>
-    <t>Internal source resistance</t>
-  </si>
-  <si>
-    <t>Ri</t>
-  </si>
-  <si>
     <t>Ohm</t>
   </si>
   <si>
@@ -274,6 +259,9 @@
     <t>Ineratia</t>
   </si>
   <si>
+    <t>Total inertia with respect to the load side</t>
+  </si>
+  <si>
     <t>J</t>
   </si>
   <si>
@@ -313,12 +301,6 @@
     <t>Thermal Resistance</t>
   </si>
   <si>
-    <t>Total thermal capacity</t>
-  </si>
-  <si>
-    <t>Dominating thermal resistance</t>
-  </si>
-  <si>
     <t>K/W</t>
   </si>
   <si>
@@ -355,18 +337,9 @@
     <t>p</t>
   </si>
   <si>
-    <t>Max Speed</t>
-  </si>
-  <si>
     <t>Nominal Speed</t>
   </si>
   <si>
-    <t>Max Torque</t>
-  </si>
-  <si>
-    <t>Maximum mechanical torque</t>
-  </si>
-  <si>
     <t>T_max</t>
   </si>
   <si>
@@ -379,9 +352,6 @@
     <t>Nominal speed (base speed)</t>
   </si>
   <si>
-    <t>Maximum rotational speed</t>
-  </si>
-  <si>
     <t>1/s</t>
   </si>
   <si>
@@ -394,10 +364,568 @@
     <t>J_rot</t>
   </si>
   <si>
-    <t>Max Current</t>
-  </si>
-  <si>
-    <t>Max Power</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Fluxlinkage</t>
+  </si>
+  <si>
+    <t>Permanent magnet flux linkage</t>
+  </si>
+  <si>
+    <t>Psi_pm</t>
+  </si>
+  <si>
+    <t>Vs</t>
+  </si>
+  <si>
+    <t>L_d</t>
+  </si>
+  <si>
+    <t>L_q</t>
+  </si>
+  <si>
+    <t>Inductance D</t>
+  </si>
+  <si>
+    <t>Inductance Q</t>
+  </si>
+  <si>
+    <t>Vs/A</t>
+  </si>
+  <si>
+    <t>Stator inductance d-axis</t>
+  </si>
+  <si>
+    <t>Stator inductance q-axis</t>
+  </si>
+  <si>
+    <t>Stator Resistance</t>
+  </si>
+  <si>
+    <t>Per phase stator resistance @20 degC</t>
+  </si>
+  <si>
+    <t>R_s</t>
+  </si>
+  <si>
+    <t>c_m</t>
+  </si>
+  <si>
+    <t>c_b</t>
+  </si>
+  <si>
+    <t>Switching Frequency</t>
+  </si>
+  <si>
+    <t>Average switching frequency</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>1) IGBT, 2) MOSFET</t>
+  </si>
+  <si>
+    <t>Parallel Switches</t>
+  </si>
+  <si>
+    <t>Number of parallel conducting switches</t>
+  </si>
+  <si>
+    <t>nSw</t>
+  </si>
+  <si>
+    <t>Collector Voltage</t>
+  </si>
+  <si>
+    <t>Zero offset collector voltage IGBT</t>
+  </si>
+  <si>
+    <t>On resistance of the transistor</t>
+  </si>
+  <si>
+    <t>r_T</t>
+  </si>
+  <si>
+    <t>V_ce0</t>
+  </si>
+  <si>
+    <t>Diode Voltage</t>
+  </si>
+  <si>
+    <t>Zero offset forward voltage Diode</t>
+  </si>
+  <si>
+    <t>V_d0</t>
+  </si>
+  <si>
+    <t>On Resistance Switch</t>
+  </si>
+  <si>
+    <t>On Resistance Diode</t>
+  </si>
+  <si>
+    <t>On resistance of the diode</t>
+  </si>
+  <si>
+    <t>r_D</t>
+  </si>
+  <si>
+    <t>On Energie</t>
+  </si>
+  <si>
+    <t>Off Energie</t>
+  </si>
+  <si>
+    <t>Rec Energie</t>
+  </si>
+  <si>
+    <t>E_on</t>
+  </si>
+  <si>
+    <t>E_off</t>
+  </si>
+  <si>
+    <t>E_rec</t>
+  </si>
+  <si>
+    <t>On switch energie at rated conditions</t>
+  </si>
+  <si>
+    <t>Off switch energie at rated conditions</t>
+  </si>
+  <si>
+    <t>Reverse recovery energy at rated conditions</t>
+  </si>
+  <si>
+    <t>Rated Voltage</t>
+  </si>
+  <si>
+    <t>Rated Current</t>
+  </si>
+  <si>
+    <t>Rated Temperature</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>ESR DC-Link</t>
+  </si>
+  <si>
+    <t>Electrical resistance DC-Link capacitor</t>
+  </si>
+  <si>
+    <t>R_esr</t>
+  </si>
+  <si>
+    <t>Capacity DC Link</t>
+  </si>
+  <si>
+    <t>Capacitance DC-Link capacitor</t>
+  </si>
+  <si>
+    <t>C_dc</t>
+  </si>
+  <si>
+    <t>As/V</t>
+  </si>
+  <si>
+    <t>AC Busbar</t>
+  </si>
+  <si>
+    <t>R_ac</t>
+  </si>
+  <si>
+    <t>DC Busbar</t>
+  </si>
+  <si>
+    <t>R_dc</t>
+  </si>
+  <si>
+    <t>V_0</t>
+  </si>
+  <si>
+    <t>I_0</t>
+  </si>
+  <si>
+    <t>T_0</t>
+  </si>
+  <si>
+    <t>Rated voltage for loss calculation</t>
+  </si>
+  <si>
+    <t>Rated current for loss calculation</t>
+  </si>
+  <si>
+    <t>Rated temperature for loss calculation</t>
+  </si>
+  <si>
+    <t>K_f</t>
+  </si>
+  <si>
+    <t>K_h</t>
+  </si>
+  <si>
+    <t>C_th</t>
+  </si>
+  <si>
+    <t>R_th</t>
+  </si>
+  <si>
+    <t>Min Voltage</t>
+  </si>
+  <si>
+    <t>Max Voltage</t>
+  </si>
+  <si>
+    <t>Nom Voltage</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>V_nom</t>
+  </si>
+  <si>
+    <t>V_max</t>
+  </si>
+  <si>
+    <t>V_min</t>
+  </si>
+  <si>
+    <t>E_bat</t>
+  </si>
+  <si>
+    <t>Maximum voltage storage</t>
+  </si>
+  <si>
+    <t>Minimum voltage storage</t>
+  </si>
+  <si>
+    <t>Nominal voltage torage</t>
+  </si>
+  <si>
+    <t>Brutto energy content storage</t>
+  </si>
+  <si>
+    <t>Ideal recuperation efficiency</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Recu Efficiency</t>
+  </si>
+  <si>
+    <t>Distribution of breaking forces front/rear</t>
+  </si>
+  <si>
+    <t>Distribution of acceleration forces front/rear (AWD only)</t>
+  </si>
+  <si>
+    <t>d_b</t>
+  </si>
+  <si>
+    <t>d_a</t>
+  </si>
+  <si>
+    <t>p.u.</t>
+  </si>
+  <si>
+    <t>Break Force</t>
+  </si>
+  <si>
+    <t>Acceleration Force</t>
+  </si>
+  <si>
+    <t>Hysteresis losses at rated flux and rated frequency</t>
+  </si>
+  <si>
+    <t>Eddy losses at rated flux and rated frequency</t>
+  </si>
+  <si>
+    <t>Hysteresis Loss</t>
+  </si>
+  <si>
+    <t>Eddy Loss</t>
+  </si>
+  <si>
+    <t>J_gbx</t>
+  </si>
+  <si>
+    <t>Leakage inductance stator</t>
+  </si>
+  <si>
+    <t>L_sig</t>
+  </si>
+  <si>
+    <t>Leakage Inductance</t>
+  </si>
+  <si>
+    <t>Machine Type</t>
+  </si>
+  <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
+    <t>1) PSM, 2) SSM, 3) ASM</t>
+  </si>
+  <si>
+    <t>1) Surface Magnet, 2) Interior Magnet</t>
+  </si>
+  <si>
+    <t>Slope Temperature</t>
+  </si>
+  <si>
+    <t>Gate Resistance</t>
+  </si>
+  <si>
+    <t>Value of the gate resistance for loss scaling</t>
+  </si>
+  <si>
+    <t>R_g</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Sensitivity of parameters with temperature (Tjmax-T0)</t>
+  </si>
+  <si>
+    <t>Max Temperature</t>
+  </si>
+  <si>
+    <t>Tj_max</t>
+  </si>
+  <si>
+    <t>AC busbar resistance per phase @20 degC</t>
+  </si>
+  <si>
+    <t>DC busbar resistance @20 degC</t>
+  </si>
+  <si>
+    <t>R_i</t>
+  </si>
+  <si>
+    <t>eV</t>
+  </si>
+  <si>
+    <t>Sw</t>
+  </si>
+  <si>
+    <t>Peak stator current (phase)</t>
+  </si>
+  <si>
+    <t>Number of parallel conducting capacitors</t>
+  </si>
+  <si>
+    <t>Parallel Caps</t>
+  </si>
+  <si>
+    <t>nCap</t>
+  </si>
+  <si>
+    <t>Total thermal capacity from hotspot to water</t>
+  </si>
+  <si>
+    <t>Dominating thermal resistance from hotspot to water</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Heat transfer coefficient to coolant</t>
+  </si>
+  <si>
+    <t>Heat transfer area to coolant</t>
+  </si>
+  <si>
+    <t>h_th</t>
+  </si>
+  <si>
+    <t>A_th</t>
+  </si>
+  <si>
+    <t>W/m2K</t>
+  </si>
+  <si>
+    <t>Heat Transfer</t>
+  </si>
+  <si>
+    <t>Heat Area</t>
+  </si>
+  <si>
+    <t>Activation Energie</t>
+  </si>
+  <si>
+    <t>Coffin Exponent</t>
+  </si>
+  <si>
+    <t>Voltage Exponent</t>
+  </si>
+  <si>
+    <t>Nominal Lifetime</t>
+  </si>
+  <si>
+    <t>Nominal Cycles</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>cycles</t>
+  </si>
+  <si>
+    <t>Activatio energie for high temperature aging</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Coffin manson exponent for temperature changes</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Voltage exponent for stress of electrical fields</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Nominal lifetime provided for a certain failure probability</t>
+  </si>
+  <si>
+    <t>L0</t>
+  </si>
+  <si>
+    <t>Nf0</t>
+  </si>
+  <si>
+    <t>Nominal cycles provided for a certain failure probability</t>
+  </si>
+  <si>
+    <t>Weibull slope</t>
+  </si>
+  <si>
+    <t>Slope of the weibull distribution</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Confidence level of the weibull distribution</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Nominal failure probability</t>
+  </si>
+  <si>
+    <t>Nominal Failure</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>Desired Failure</t>
+  </si>
+  <si>
+    <t>Desired failure probabiliy</t>
+  </si>
+  <si>
+    <t>Bx</t>
+  </si>
+  <si>
+    <t>Area of the radiator</t>
+  </si>
+  <si>
+    <t>A_r</t>
+  </si>
+  <si>
+    <t>Area of vehicle bottom</t>
+  </si>
+  <si>
+    <t>A_b</t>
+  </si>
+  <si>
+    <t>Radiator Area</t>
+  </si>
+  <si>
+    <t>Vehicle Area</t>
+  </si>
+  <si>
+    <t>Activation Energie Cell</t>
+  </si>
+  <si>
+    <t>Activation energie for scaling cell resistances</t>
+  </si>
+  <si>
+    <t>E_a</t>
+  </si>
+  <si>
+    <t>Internal source resistance @20degC</t>
+  </si>
+  <si>
+    <t>Torque Limit</t>
+  </si>
+  <si>
+    <t>Speed Limit</t>
+  </si>
+  <si>
+    <t>Power Limit</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute value of the maximum torque </t>
+  </si>
+  <si>
+    <t>Absolute value of the maximum speed</t>
+  </si>
+  <si>
+    <t>Absolute value of the maximum power</t>
+  </si>
+  <si>
+    <t>P_Max</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>I_Max</t>
+  </si>
+  <si>
+    <t>Absolute value of the maximum electrical power</t>
+  </si>
+  <si>
+    <t>Peak phase current</t>
   </si>
   <si>
     <t>I_max</t>
@@ -406,241 +934,16 @@
     <t>P_max</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Fluxlinkage</t>
-  </si>
-  <si>
-    <t>Permanent magnet flux linkage</t>
-  </si>
-  <si>
-    <t>Psi_pm</t>
-  </si>
-  <si>
-    <t>Vs</t>
-  </si>
-  <si>
-    <t>L_d</t>
-  </si>
-  <si>
-    <t>L_q</t>
-  </si>
-  <si>
-    <t>Inductance D</t>
-  </si>
-  <si>
-    <t>Inductance Q</t>
-  </si>
-  <si>
-    <t>Maximum RMS stator current (phase)</t>
-  </si>
-  <si>
-    <t>Vs/A</t>
-  </si>
-  <si>
-    <t>Stator inductance d-axis</t>
-  </si>
-  <si>
-    <t>Stator inductance q-axis</t>
-  </si>
-  <si>
-    <t>Stator Resistance</t>
-  </si>
-  <si>
-    <t>Per phase stator resistance @20 degC</t>
-  </si>
-  <si>
-    <t>R_s</t>
-  </si>
-  <si>
-    <t>Maximum power machine</t>
-  </si>
-  <si>
-    <t>c_m</t>
-  </si>
-  <si>
-    <t>c_b</t>
-  </si>
-  <si>
-    <t>Switching Frequency</t>
-  </si>
-  <si>
-    <t>Average switching frequency</t>
-  </si>
-  <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>Hz</t>
-  </si>
-  <si>
-    <t>Switches</t>
-  </si>
-  <si>
-    <t>1) IGBT, 2) MOSFET</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Parallel Switches</t>
-  </si>
-  <si>
-    <t>Number of parallel conducting switches</t>
-  </si>
-  <si>
-    <t>nSw</t>
-  </si>
-  <si>
-    <t>Collector Voltage</t>
-  </si>
-  <si>
-    <t>Zero offset collector voltage IGBT</t>
-  </si>
-  <si>
-    <t>On resistance of the transistor</t>
-  </si>
-  <si>
-    <t>r_T</t>
-  </si>
-  <si>
-    <t>V_ce0</t>
-  </si>
-  <si>
-    <t>Diode Voltage</t>
-  </si>
-  <si>
-    <t>Zero offset forward voltage Diode</t>
-  </si>
-  <si>
-    <t>V_d0</t>
-  </si>
-  <si>
-    <t>On Resistance Switch</t>
-  </si>
-  <si>
-    <t>On Resistance Diode</t>
-  </si>
-  <si>
-    <t>On resistance of the diode</t>
-  </si>
-  <si>
-    <t>r_D</t>
-  </si>
-  <si>
-    <t>On Energie</t>
-  </si>
-  <si>
-    <t>Off Energie</t>
-  </si>
-  <si>
-    <t>Rec Energie</t>
-  </si>
-  <si>
-    <t>E_on</t>
-  </si>
-  <si>
-    <t>E_off</t>
-  </si>
-  <si>
-    <t>E_rec</t>
-  </si>
-  <si>
-    <t>On switch energie at rated conditions</t>
-  </si>
-  <si>
-    <t>Off switch energie at rated conditions</t>
-  </si>
-  <si>
-    <t>Reverse recovery energy at rated conditions</t>
-  </si>
-  <si>
-    <t>Rated Voltage</t>
-  </si>
-  <si>
-    <t>Rated Current</t>
-  </si>
-  <si>
-    <t>Rated Temperature</t>
-  </si>
-  <si>
-    <t>degC</t>
-  </si>
-  <si>
-    <t>ESR DC-Link</t>
-  </si>
-  <si>
-    <t>Electrical resistance DC-Link capacitor</t>
-  </si>
-  <si>
-    <t>R_esr</t>
-  </si>
-  <si>
-    <t>Capacity DC Link</t>
-  </si>
-  <si>
-    <t>Capacitance DC-Link capacitor</t>
-  </si>
-  <si>
-    <t>C_dc</t>
-  </si>
-  <si>
-    <t>As/V</t>
-  </si>
-  <si>
-    <t>AC Busbar</t>
-  </si>
-  <si>
-    <t>AC busbar resistance per phase</t>
-  </si>
-  <si>
-    <t>R_ac</t>
-  </si>
-  <si>
-    <t>DC Busbar</t>
-  </si>
-  <si>
-    <t>DC busbar resistance</t>
-  </si>
-  <si>
-    <t>R_dc</t>
-  </si>
-  <si>
-    <t>V_0</t>
-  </si>
-  <si>
-    <t>I_0</t>
-  </si>
-  <si>
-    <t>T_0</t>
-  </si>
-  <si>
-    <t>Rated voltage for loss calculation</t>
-  </si>
-  <si>
-    <t>Rated current for loss calculation</t>
-  </si>
-  <si>
-    <t>Rated temperature for loss calculation</t>
-  </si>
-  <si>
-    <t>K_f</t>
-  </si>
-  <si>
-    <t>K_h</t>
-  </si>
-  <si>
-    <t>C_th</t>
-  </si>
-  <si>
-    <t>R_th</t>
-  </si>
-  <si>
-    <t>Total inertia with respect to the EMA side</t>
-  </si>
-  <si>
-    <t>J_gbx</t>
+    <t>Ws/kgK</t>
+  </si>
+  <si>
+    <t>M_max</t>
+  </si>
+  <si>
+    <t>Temperature Limit</t>
+  </si>
+  <si>
+    <t>Maximum allowed temperature</t>
   </si>
 </sst>
 </file>
@@ -678,7 +981,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -757,11 +1060,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -775,6 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,6 +1103,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1218,17 +1535,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAB857B-5D2E-4BE1-B462-B4B5EEAA4370}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1237,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -1257,7 +1574,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -1277,7 +1594,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -1297,7 +1614,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -1317,7 +1634,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -1337,7 +1654,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -1357,7 +1674,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -1377,7 +1694,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -1397,7 +1714,7 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
@@ -1417,7 +1734,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>52</v>
@@ -1433,110 +1750,203 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>68</v>
+      <c r="A11" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>0.6</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13">
-        <v>4184</v>
-      </c>
-      <c r="F13" t="s">
-        <v>93</v>
+      <c r="A13" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>4184</v>
+      </c>
+      <c r="F16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18">
+        <v>0.8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19">
+        <v>1.2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7BF3F9-74A5-48BC-85E5-DF3C836A4E03}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1545,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -1565,7 +1975,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -1582,131 +1992,421 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E3" s="9">
         <v>0.1</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="E4">
-        <v>0.6</v>
+        <v>450</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>86</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>0.3</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>84</v>
+      <c r="A6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>267</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7">
-        <v>50000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>93</v>
+      <c r="A7" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="11">
+        <v>250000</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="E8">
-        <v>5.0000000000000001E-3</v>
+        <v>0.6</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11">
+        <v>50000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12">
+        <v>0.02</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15">
+        <v>0.45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16">
+        <v>-2.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17">
+        <v>-3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1715,16 +2415,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3630A6F7-7256-4058-B238-4C7390C489AB}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1732,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -1749,19 +2449,19 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -1769,293 +2469,621 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="E3">
-        <f>16000/60</f>
-        <v>266.66666666666669</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <f>5500/60</f>
-        <v>91.666666666666671</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>420</v>
+        <f>5000/60</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E6" s="9">
         <v>0.12</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="E7">
-        <v>971</v>
+        <v>420</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E8">
-        <v>239000</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>7.3999999999999996E-2</v>
+        <v>267</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>293</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>126</v>
+        <v>296</v>
       </c>
       <c r="E10" s="7">
-        <v>1.1E-4</v>
+        <v>239000</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>131</v>
+      <c r="A11" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1373</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="11">
-        <v>5.8700000000000002E-3</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>63</v>
+      <c r="A12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>139</v>
+        <v>112</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.1E-4</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>113</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>208</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="B16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="D16" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4.8500000000000001E-3</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="E17">
-        <v>50000</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18">
-        <v>5.0000000000000001E-3</v>
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.06</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21">
+        <v>50000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22">
+        <v>0.01</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25">
+        <v>0.45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26">
+        <v>-2.5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27">
+        <v>-3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28">
+        <v>1000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29">
+        <v>1000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E30">
+        <v>0.1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32">
+        <v>0.6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33">
+        <v>0.1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2065,16 +3093,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285D35A-F197-4EB0-88CD-0BBC2A0271CA}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2082,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -2099,36 +3127,36 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E2">
         <v>8000</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2139,16 +3167,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2159,313 +3187,680 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5">
-        <v>650</v>
+        <v>233</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
         <v>172</v>
       </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>192</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E6">
+        <v>650</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7">
         <v>750</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="9">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="E8">
-        <v>0.7</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.04</v>
+        <v>224</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="A10" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="7">
+        <v>250000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
         <v>157</v>
       </c>
-      <c r="E10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
+      <c r="A13" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1373</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>167</v>
+        <v>137</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="E15" s="7">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" s="7">
-        <v>6.4999999999999997E-4</v>
+        <v>140</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E17" s="7">
-        <v>2.5000000000000001E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1.2E-4</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>63</v>
+      <c r="A18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1.84E-2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19">
-        <v>50</v>
+        <v>149</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20">
-        <v>0.2</v>
+        <v>150</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.34E-2</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="7">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1.2E-4</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27">
+        <v>0.06</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28">
+        <v>1000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E30">
+        <v>0.45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E31">
+        <v>-2.5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32">
+        <v>-3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35">
+        <v>0.1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37">
+        <v>0.6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38">
+        <v>0.1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2475,17 +3870,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D1B2C-94E2-459A-81F7-2E9B24A83AD3}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2493,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -2510,71 +3905,441 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>293</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2">
-        <v>360</v>
+        <v>290</v>
+      </c>
+      <c r="E2" s="7">
+        <v>250000</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="11">
+        <v>971</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6">
+        <v>360</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7">
+        <v>400</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8">
+        <v>275</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="9">
+        <v>50</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11">
+        <v>150000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12">
+        <v>0.03</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15">
+        <v>0.45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16">
+        <v>-2.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17">
+        <v>-3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/setup/setup_Tesla3.xlsx
+++ b/setup/setup_Tesla3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5CB9DE1-A24E-4557-9F8B-85E3A770331F}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB9FE08-E346-44FE-99BE-0BE880F1D7E3}"/>
   <bookViews>
-    <workbookView xWindow="2748" yWindow="4236" windowWidth="23040" windowHeight="12204" activeTab="5" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="6216" yWindow="4476" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="299">
   <si>
     <t>#</t>
   </si>
@@ -913,13 +913,7 @@
     <t>Absolute value of the maximum power</t>
   </si>
   <si>
-    <t>P_Max</t>
-  </si>
-  <si>
     <t>Current Limit</t>
-  </si>
-  <si>
-    <t>I_Max</t>
   </si>
   <si>
     <t>Absolute value of the maximum electrical power</t>
@@ -1866,7 +1860,7 @@
         <v>4184</v>
       </c>
       <c r="F16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1940,7 +1934,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2021,7 +2015,7 @@
         <v>287</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E4">
         <v>450</v>
@@ -2032,13 +2026,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
         <v>286</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>99</v>
@@ -2081,7 +2075,7 @@
         <v>289</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E7" s="11">
         <v>250000</v>
@@ -2417,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3630A6F7-7256-4058-B238-4C7390C489AB}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2481,7 +2475,7 @@
         <v>214</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -2559,7 +2553,7 @@
         <v>287</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E7">
         <v>420</v>
@@ -2570,13 +2564,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
         <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>99</v>
@@ -2616,10 +2610,10 @@
         <v>286</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E10" s="7">
         <v>239000</v>
@@ -2630,7 +2624,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>286</v>
@@ -2639,7 +2633,7 @@
         <v>230</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E11" s="11">
         <v>1373</v>
@@ -3313,10 +3307,10 @@
         <v>286</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E11" s="7">
         <v>250000</v>
@@ -3327,13 +3321,13 @@
     </row>
     <row r="12" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
         <v>286</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>99</v>
@@ -3347,16 +3341,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>286</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E13" s="11">
         <v>1373</v>
@@ -3872,8 +3866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D1B2C-94E2-459A-81F7-2E9B24A83AD3}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3911,10 +3905,10 @@
         <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E2" s="7">
         <v>250000</v>
@@ -3925,13 +3919,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
         <v>286</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>99</v>
@@ -3945,16 +3939,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>286</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E4" s="11">
         <v>971</v>

--- a/setup/setup_Tesla3.xlsx
+++ b/setup/setup_Tesla3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB9FE08-E346-44FE-99BE-0BE880F1D7E3}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F1E935-FFDA-4D01-B8D8-A62F0F26DD6A}"/>
   <bookViews>
-    <workbookView xWindow="6216" yWindow="4476" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -1934,7 +1934,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2412,7 +2412,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2576,7 +2576,7 @@
         <v>99</v>
       </c>
       <c r="E8">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
         <v>157</v>
@@ -3089,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285D35A-F197-4EB0-88CD-0BBC2A0271CA}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3273,7 +3273,7 @@
         <v>224</v>
       </c>
       <c r="E9">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
         <v>157</v>
@@ -3313,7 +3313,7 @@
         <v>294</v>
       </c>
       <c r="E11" s="7">
-        <v>250000</v>
+        <v>275000</v>
       </c>
       <c r="F11" t="s">
         <v>107</v>
@@ -3867,7 +3867,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3911,7 +3911,7 @@
         <v>294</v>
       </c>
       <c r="E2" s="7">
-        <v>250000</v>
+        <v>275000</v>
       </c>
       <c r="F2" t="s">
         <v>107</v>
@@ -3931,7 +3931,7 @@
         <v>99</v>
       </c>
       <c r="E3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
         <v>157</v>
@@ -3951,7 +3951,7 @@
         <v>293</v>
       </c>
       <c r="E4" s="11">
-        <v>971</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>5</v>

--- a/setup/setup_Tesla3.xlsx
+++ b/setup/setup_Tesla3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F1E935-FFDA-4D01-B8D8-A62F0F26DD6A}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{018A7F1D-7041-4B3E-9BDE-C4F7CA9849E9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -2411,7 +2411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3630A6F7-7256-4058-B238-4C7390C489AB}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -3089,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285D35A-F197-4EB0-88CD-0BBC2A0271CA}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3373,7 +3373,7 @@
         <v>137</v>
       </c>
       <c r="E14">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
@@ -3393,7 +3393,7 @@
         <v>136</v>
       </c>
       <c r="E15" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>4.6099999999999998E-4</v>
       </c>
       <c r="F15" t="s">
         <v>58</v>
@@ -3413,7 +3413,7 @@
         <v>140</v>
       </c>
       <c r="E16">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
@@ -3433,7 +3433,7 @@
         <v>144</v>
       </c>
       <c r="E17" s="7">
-        <v>2E-3</v>
+        <v>6.6600000000000003E-4</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -3453,7 +3453,7 @@
         <v>148</v>
       </c>
       <c r="E18" s="7">
-        <v>1.84E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="F18" t="s">
         <v>73</v>
@@ -3473,7 +3473,7 @@
         <v>149</v>
       </c>
       <c r="E19" s="7">
-        <v>2.3599999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F19" t="s">
         <v>73</v>
@@ -3493,7 +3493,7 @@
         <v>150</v>
       </c>
       <c r="E20" s="7">
-        <v>1.34E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F20" t="s">
         <v>73</v>
@@ -3613,7 +3613,7 @@
         <v>177</v>
       </c>
       <c r="E26">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F26" t="s">
         <v>87</v>
@@ -3633,7 +3633,7 @@
         <v>178</v>
       </c>
       <c r="E27">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F27" t="s">
         <v>86</v>
@@ -3691,7 +3691,7 @@
         <v>252</v>
       </c>
       <c r="E30">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="F30" t="s">
         <v>228</v>
@@ -3711,7 +3711,7 @@
         <v>254</v>
       </c>
       <c r="E31">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="F31" t="s">
         <v>38</v>

--- a/setup/setup_Tesla3.xlsx
+++ b/setup/setup_Tesla3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{018A7F1D-7041-4B3E-9BDE-C4F7CA9849E9}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{725B1BF0-561B-489F-81E3-F8615BBCB5F6}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="309">
   <si>
     <t>#</t>
   </si>
@@ -938,6 +938,36 @@
   </si>
   <si>
     <t>Maximum allowed temperature</t>
+  </si>
+  <si>
+    <t>Nominal Temperature</t>
+  </si>
+  <si>
+    <t>Nominal Change</t>
+  </si>
+  <si>
+    <t>Nominal Voltage</t>
+  </si>
+  <si>
+    <t>Nominal temperature of the arrhenius law</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>Nominal temperature change of the coffin law</t>
+  </si>
+  <si>
+    <t>dT0</t>
+  </si>
+  <si>
+    <t>Nominal voltage of the prokopovic law</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1562,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F19" sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1931,15 +1961,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7BF3F9-74A5-48BC-85E5-DF3C836A4E03}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
@@ -2324,81 +2355,141 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
         <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="E20">
-        <v>0.1</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
         <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="B22" t="s">
         <v>236</v>
       </c>
       <c r="C22" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="E22">
-        <v>0.6</v>
+        <v>650</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s">
         <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E23">
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25">
+        <v>0.95</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2409,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3630A6F7-7256-4058-B238-4C7390C489AB}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3002,81 +3093,141 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s">
         <v>236</v>
       </c>
       <c r="C30" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="E30">
-        <v>0.1</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s">
         <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
         <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="E32">
-        <v>0.6</v>
+        <v>650</v>
       </c>
       <c r="F32" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s">
         <v>236</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E33">
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35">
+        <v>0.6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3087,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285D35A-F197-4EB0-88CD-0BBC2A0271CA}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3779,81 +3930,141 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s">
         <v>236</v>
       </c>
       <c r="C35" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="E35">
-        <v>0.1</v>
+        <v>175</v>
       </c>
       <c r="F35" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s">
         <v>236</v>
       </c>
       <c r="C36" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s">
         <v>236</v>
       </c>
       <c r="C37" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="E37">
-        <v>0.6</v>
+        <v>650</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s">
         <v>236</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E38">
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40">
+        <v>0.6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E41">
+        <v>0.1</v>
+      </c>
+      <c r="F41" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3864,10 +4075,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D1B2C-94E2-459A-81F7-2E9B24A83AD3}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4169,7 +4380,7 @@
         <v>252</v>
       </c>
       <c r="E15">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="s">
         <v>228</v>
@@ -4257,81 +4468,141 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
         <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="E20">
-        <v>0.1</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
         <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="B22" t="s">
         <v>236</v>
       </c>
       <c r="C22" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="E22">
-        <v>0.6</v>
+        <v>650</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s">
         <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E23">
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25">
+        <v>0.6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26" t="s">
         <v>194</v>
       </c>
     </row>

--- a/setup/setup_Tesla3.xlsx
+++ b/setup/setup_Tesla3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{725B1BF0-561B-489F-81E3-F8615BBCB5F6}"/>
+  <xr:revisionPtr revIDLastSave="360" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20A3D626-6E79-4ED2-9D5A-5409355DDCDA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
@@ -1964,7 +1964,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2467,7 +2467,7 @@
         <v>266</v>
       </c>
       <c r="E25">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="s">
         <v>194</v>
@@ -3241,7 +3241,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:F37"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3942,7 +3942,7 @@
         <v>303</v>
       </c>
       <c r="E35">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
         <v>157</v>
@@ -3962,7 +3962,7 @@
         <v>305</v>
       </c>
       <c r="E36">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="F36" t="s">
         <v>308</v>
@@ -4077,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D1B2C-94E2-459A-81F7-2E9B24A83AD3}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4440,7 +4440,7 @@
         <v>258</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F18" t="s">
         <v>249</v>
@@ -4480,7 +4480,7 @@
         <v>303</v>
       </c>
       <c r="E20">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
         <v>157</v>

--- a/setup/setup_Tesla3.xlsx
+++ b/setup/setup_Tesla3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="360" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20A3D626-6E79-4ED2-9D5A-5409355DDCDA}"/>
+  <xr:revisionPtr revIDLastSave="395" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21B842FA-D59C-4A76-B96B-D32E7D94687B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="A1:F19"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1963,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7BF3F9-74A5-48BC-85E5-DF3C836A4E03}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L24:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2327,7 +2327,7 @@
         <v>258</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F18" t="s">
         <v>249</v>
@@ -2467,7 +2467,7 @@
         <v>266</v>
       </c>
       <c r="E25">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="F25" t="s">
         <v>194</v>
@@ -2503,7 +2503,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3105,7 +3105,7 @@
         <v>303</v>
       </c>
       <c r="E30">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
         <v>157</v>
@@ -3125,7 +3125,7 @@
         <v>305</v>
       </c>
       <c r="E31">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
         <v>308</v>
@@ -3205,7 +3205,7 @@
         <v>266</v>
       </c>
       <c r="E35">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="F35" t="s">
         <v>194</v>
@@ -3240,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285D35A-F197-4EB0-88CD-0BBC2A0271CA}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3962,7 +3962,7 @@
         <v>305</v>
       </c>
       <c r="E36">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s">
         <v>308</v>
@@ -4077,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D1B2C-94E2-459A-81F7-2E9B24A83AD3}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4440,7 +4440,7 @@
         <v>258</v>
       </c>
       <c r="E18">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F18" t="s">
         <v>249</v>
@@ -4480,7 +4480,7 @@
         <v>303</v>
       </c>
       <c r="E20">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
         <v>157</v>
@@ -4500,7 +4500,7 @@
         <v>305</v>
       </c>
       <c r="E21">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
         <v>308</v>
@@ -4580,7 +4580,7 @@
         <v>266</v>
       </c>
       <c r="E25">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="F25" t="s">
         <v>194</v>
@@ -4600,7 +4600,7 @@
         <v>272</v>
       </c>
       <c r="E26">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F26" t="s">
         <v>194</v>

--- a/setup/setup_Tesla3.xlsx
+++ b/setup/setup_Tesla3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21B842FA-D59C-4A76-B96B-D32E7D94687B}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB0BC659-0AF4-465B-8C0F-A12CC9F3D732}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="3828" yWindow="2568" windowWidth="23040" windowHeight="12204" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -1964,7 +1964,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L24:L25"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2327,7 +2327,7 @@
         <v>258</v>
       </c>
       <c r="E18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F18" t="s">
         <v>249</v>
@@ -2502,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3630A6F7-7256-4058-B238-4C7390C489AB}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3105,7 +3105,7 @@
         <v>303</v>
       </c>
       <c r="E30">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
         <v>157</v>
@@ -3125,7 +3125,7 @@
         <v>305</v>
       </c>
       <c r="E31">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="F31" t="s">
         <v>308</v>
@@ -3240,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285D35A-F197-4EB0-88CD-0BBC2A0271CA}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3962,7 +3962,7 @@
         <v>305</v>
       </c>
       <c r="E36">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="F36" t="s">
         <v>308</v>
@@ -4002,7 +4002,7 @@
         <v>269</v>
       </c>
       <c r="E38">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F38" t="s">
         <v>194</v>
@@ -4077,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D1B2C-94E2-459A-81F7-2E9B24A83AD3}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4440,7 +4440,7 @@
         <v>258</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F18" t="s">
         <v>249</v>
@@ -4480,7 +4480,7 @@
         <v>303</v>
       </c>
       <c r="E20">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
         <v>157</v>
@@ -4600,7 +4600,7 @@
         <v>272</v>
       </c>
       <c r="E26">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F26" t="s">
         <v>194</v>

--- a/setup/setup_Tesla3.xlsx
+++ b/setup/setup_Tesla3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="413" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB0BC659-0AF4-465B-8C0F-A12CC9F3D732}"/>
+  <xr:revisionPtr revIDLastSave="414" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712220F2-1CAF-4DCC-9E3B-E70817E3CE48}"/>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="2568" windowWidth="23040" windowHeight="12204" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -2502,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3630A6F7-7256-4058-B238-4C7390C489AB}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2566,7 +2566,7 @@
         <v>214</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -3240,7 +3240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285D35A-F197-4EB0-88CD-0BBC2A0271CA}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
